--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value394.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value394.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.399156837297311</v>
+        <v>1.468607902526855</v>
       </c>
       <c r="B1">
-        <v>1.523092649981469</v>
+        <v>3.309092998504639</v>
       </c>
       <c r="C1">
-        <v>1.606849551564306</v>
+        <v>2.544580698013306</v>
       </c>
       <c r="D1">
-        <v>2.2014765902042</v>
+        <v>2.352552175521851</v>
       </c>
       <c r="E1">
-        <v>2.42977139404214</v>
+        <v>1.964970111846924</v>
       </c>
     </row>
   </sheetData>
